--- a/Result/LSTM Multi/Service/GBR.xlsx
+++ b/Result/LSTM Multi/Service/GBR.xlsx
@@ -399,7 +399,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>16.66798755183352</v>
+        <v>68.38088725670931</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>16.26393514474525</v>
+        <v>68.58294972267063</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +415,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>16.04603255128911</v>
+        <v>69.5351253403157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>15.68185759056369</v>
+        <v>70.43081793442168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -431,7 +431,7 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>16.40380812564748</v>
+        <v>70.42546283125513</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -439,7 +439,7 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>15.48202825036215</v>
+        <v>64.87304682921798</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -447,7 +447,7 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>15.26167400687671</v>
+        <v>65.08108618280909</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -455,7 +455,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>15.05881364917567</v>
+        <v>65.6335130198355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -463,7 +463,7 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>14.44569766346996</v>
+        <v>66.06632355622156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -471,7 +471,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>13.84905515513882</v>
+        <v>66.12771960805014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -479,7 +479,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>13.34010013654984</v>
+        <v>66.06690942193902</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -487,7 +487,7 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>12.45044977202736</v>
+        <v>67.41247768214825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>12.14522622183988</v>
+        <v>67.65845946018602</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -503,7 +503,7 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>11.60670492154575</v>
+        <v>68.25630768986564</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -511,7 +511,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>10.98015943513545</v>
+        <v>68.89064443092089</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -519,7 +519,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>10.51679841332442</v>
+        <v>69.2727355864584</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>10.19548703141146</v>
+        <v>69.19494664534015</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -535,7 +535,7 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>9.645919083782617</v>
+        <v>69.72553414880804</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -543,7 +543,7 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>9.506477552490942</v>
+        <v>69.86086647585117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -551,7 +551,7 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>9.106812577065352</v>
+        <v>71.60777589395808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -559,7 +559,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>9.497486346254641</v>
+        <v>70.61447281501307</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -567,7 +567,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>9.338613927807517</v>
+        <v>70.10779816101621</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -575,7 +575,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>9.294886876908018</v>
+        <v>70.26650516598842</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -583,7 +583,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>9.505703634097443</v>
+        <v>69.90851320716837</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -591,7 +591,7 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>9.326007029243744</v>
+        <v>70.12885880856771</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -599,7 +599,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>9.213357502950581</v>
+        <v>70.47444931097988</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>8.995169187528946</v>
+        <v>71.05211743505777</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +636,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>9.355127334594727</v>
+        <v>70.18663787841797</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -644,7 +644,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>9.220837593078613</v>
+        <v>70.23378753662109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -652,7 +652,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>9.134711265563965</v>
+        <v>70.35825347900391</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -660,7 +660,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>9.132669448852539</v>
+        <v>70.44563293457031</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>9.437865257263184</v>
+        <v>70.28585815429688</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +697,7 @@
         <v>1990</v>
       </c>
       <c r="B2">
-        <v>16.66798755183352</v>
+        <v>68.38088725670931</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -705,7 +705,7 @@
         <v>1991</v>
       </c>
       <c r="B3">
-        <v>16.26393514474525</v>
+        <v>68.58294972267063</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -713,7 +713,7 @@
         <v>1992</v>
       </c>
       <c r="B4">
-        <v>16.04603255128911</v>
+        <v>69.5351253403157</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -721,7 +721,7 @@
         <v>1993</v>
       </c>
       <c r="B5">
-        <v>15.68185759056369</v>
+        <v>70.43081793442168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -729,7 +729,7 @@
         <v>1994</v>
       </c>
       <c r="B6">
-        <v>16.40380812564748</v>
+        <v>70.42546283125513</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -737,7 +737,7 @@
         <v>1995</v>
       </c>
       <c r="B7">
-        <v>15.48202825036215</v>
+        <v>64.87304682921798</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -745,7 +745,7 @@
         <v>1996</v>
       </c>
       <c r="B8">
-        <v>15.26167400687671</v>
+        <v>65.08108618280909</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -753,7 +753,7 @@
         <v>1997</v>
       </c>
       <c r="B9">
-        <v>15.05881364917567</v>
+        <v>65.6335130198355</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -761,7 +761,7 @@
         <v>1998</v>
       </c>
       <c r="B10">
-        <v>14.44569766346996</v>
+        <v>66.06632355622156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -769,7 +769,7 @@
         <v>1999</v>
       </c>
       <c r="B11">
-        <v>13.84905515513882</v>
+        <v>66.12771960805014</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -777,7 +777,7 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>13.34010013654984</v>
+        <v>66.06690942193902</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -785,7 +785,7 @@
         <v>2001</v>
       </c>
       <c r="B13">
-        <v>12.45044977202736</v>
+        <v>67.41247768214825</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -793,7 +793,7 @@
         <v>2002</v>
       </c>
       <c r="B14">
-        <v>12.14522622183988</v>
+        <v>67.65845946018602</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -801,7 +801,7 @@
         <v>2003</v>
       </c>
       <c r="B15">
-        <v>11.60670492154575</v>
+        <v>68.25630768986564</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -809,7 +809,7 @@
         <v>2004</v>
       </c>
       <c r="B16">
-        <v>10.98015943513545</v>
+        <v>68.89064443092089</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -817,7 +817,7 @@
         <v>2005</v>
       </c>
       <c r="B17">
-        <v>10.51679841332442</v>
+        <v>69.2727355864584</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -825,7 +825,7 @@
         <v>2006</v>
       </c>
       <c r="B18">
-        <v>10.19548703141146</v>
+        <v>69.19494664534015</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -833,7 +833,7 @@
         <v>2007</v>
       </c>
       <c r="B19">
-        <v>9.645919083782617</v>
+        <v>69.72553414880804</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -841,7 +841,7 @@
         <v>2008</v>
       </c>
       <c r="B20">
-        <v>9.506477552490942</v>
+        <v>69.86086647585117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -849,7 +849,7 @@
         <v>2009</v>
       </c>
       <c r="B21">
-        <v>9.106812577065352</v>
+        <v>71.60777589395808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -857,7 +857,7 @@
         <v>2010</v>
       </c>
       <c r="B22">
-        <v>9.497486346254641</v>
+        <v>70.61447281501307</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -865,7 +865,7 @@
         <v>2011</v>
       </c>
       <c r="B23">
-        <v>9.338613927807517</v>
+        <v>70.10779816101621</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -873,7 +873,7 @@
         <v>2012</v>
       </c>
       <c r="B24">
-        <v>9.294886876908018</v>
+        <v>70.26650516598842</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -881,7 +881,7 @@
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>9.505703634097443</v>
+        <v>69.90851320716837</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -889,7 +889,7 @@
         <v>2014</v>
       </c>
       <c r="B26">
-        <v>9.326007029243744</v>
+        <v>70.12885880856771</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -897,7 +897,7 @@
         <v>2015</v>
       </c>
       <c r="B27">
-        <v>9.213357502950581</v>
+        <v>70.47444931097988</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -905,7 +905,7 @@
         <v>2016</v>
       </c>
       <c r="B28">
-        <v>8.995169187528946</v>
+        <v>71.05211743505777</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -913,7 +913,7 @@
         <v>2017</v>
       </c>
       <c r="B29">
-        <v>8.947601570326869</v>
+        <v>70.86130988683175</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -921,7 +921,7 @@
         <v>2018</v>
       </c>
       <c r="B30">
-        <v>8.846981668337641</v>
+        <v>70.85863556508062</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -929,7 +929,7 @@
         <v>2019</v>
       </c>
       <c r="B31">
-        <v>8.879728176020482</v>
+        <v>70.85647344479607</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -937,7 +937,7 @@
         <v>2020</v>
       </c>
       <c r="B32">
-        <v>8.697854008196687</v>
+        <v>72.7220432100172</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -945,7 +945,7 @@
         <v>2021</v>
       </c>
       <c r="B33">
-        <v>8.76690832410466</v>
+        <v>71.6304410687019</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +974,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>10.23730564117432</v>
+        <v>70.5726318359375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -982,7 +982,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>10.16111278533936</v>
+        <v>70.64389038085938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -990,7 +990,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>10.1214771270752</v>
+        <v>70.83233642578125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -998,7 +998,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>10.09336757659912</v>
+        <v>70.86436462402344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>10.12234306335449</v>
+        <v>70.67523956298828</v>
       </c>
     </row>
   </sheetData>
